--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/David Warner (c).xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Sunrisers Hyderabad/David Warner (c).xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -975,9 +975,569 @@
         <v>Sunrisers won by 7 runs</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D18" t="str">
+        <v>85</v>
+      </c>
+      <c r="E18" t="str">
+        <v>58</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+      <c r="G18" t="str">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <v>146.55</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Nov 3 2020</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D19" t="str">
+        <v>17</v>
+      </c>
+      <c r="E19" t="str">
+        <v>17</v>
+      </c>
+      <c r="F19" t="str">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <v>0</v>
+      </c>
+      <c r="H19" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Nov 6 2020</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D20" t="str">
+        <v>28</v>
+      </c>
+      <c r="E20" t="str">
+        <v>29</v>
+      </c>
+      <c r="F20" t="str">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20" t="str">
+        <v>96.55</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Oct 2 2020</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Sunrisers won by 7 runs</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D21" t="str">
+        <v>35</v>
+      </c>
+      <c r="E21" t="str">
+        <v>20</v>
+      </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2</v>
+      </c>
+      <c r="H21" t="str">
+        <v>175.00</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Oct 24 2020</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Kings XI won by 12 runs</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D22" t="str">
+        <v>8</v>
+      </c>
+      <c r="E22" t="str">
+        <v>5</v>
+      </c>
+      <c r="F22" t="str">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <v>160.00</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Oct 31 2020</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <v>3</v>
+      </c>
+      <c r="F23" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>0</v>
+      </c>
+      <c r="H23" t="str">
+        <v>66.66</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Nov 8 2020</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Capitals won by 17 runs</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="D24" t="str">
+        <v>60</v>
+      </c>
+      <c r="E24" t="str">
+        <v>44</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <v>2</v>
+      </c>
+      <c r="H24" t="str">
+        <v>136.36</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Sharjah</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Oct 4 2020</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Mumbai won by 34 runs</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="D25" t="str">
+        <v>9</v>
+      </c>
+      <c r="E25" t="str">
+        <v>13</v>
+      </c>
+      <c r="F25" t="str">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>0</v>
+      </c>
+      <c r="H25" t="str">
+        <v>69.23</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Oct 13 2020</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D26" t="str">
+        <v>52</v>
+      </c>
+      <c r="E26" t="str">
+        <v>40</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+      <c r="G26" t="str">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str">
+        <v>130.00</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Oct 8 2020</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Sunrisers won by 69 runs</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D27" t="str">
+        <v>4</v>
+      </c>
+      <c r="E27" t="str">
+        <v>4</v>
+      </c>
+      <c r="F27" t="str">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Oct 22 2020</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D28" t="str">
+        <v>66</v>
+      </c>
+      <c r="E28" t="str">
+        <v>34</v>
+      </c>
+      <c r="F28" t="str">
+        <v>8</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2</v>
+      </c>
+      <c r="H28" t="str">
+        <v>194.11</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Oct 27 2020</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Sunrisers won by 88 runs</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D29" t="str">
+        <v>36</v>
+      </c>
+      <c r="E29" t="str">
+        <v>30</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <v>1</v>
+      </c>
+      <c r="H29" t="str">
+        <v>120.00</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Sep 26 2020</v>
+      </c>
+      <c r="K29" t="str">
+        <v>KKR won by 7 wickets (with 12 balls remaining)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="D30" t="str">
+        <v>48</v>
+      </c>
+      <c r="E30" t="str">
+        <v>38</v>
+      </c>
+      <c r="F30" t="str">
+        <v>3</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2</v>
+      </c>
+      <c r="H30" t="str">
+        <v>126.31</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Oct 11 2020</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Royals won by 5 wickets (with 1 ball remaining)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="D31" t="str">
+        <v>6</v>
+      </c>
+      <c r="E31" t="str">
+        <v>6</v>
+      </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Sep 21 2020</v>
+      </c>
+      <c r="K31" t="str">
+        <v>RCB won by 10 runs</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="D32" t="str">
+        <v>47</v>
+      </c>
+      <c r="E32" t="str">
+        <v>33</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+      <c r="G32" t="str">
+        <v>0</v>
+      </c>
+      <c r="H32" t="str">
+        <v>142.42</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Oct 18 2020</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Match tied (KKR won the one-over eliminator)</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>David Warner (c)</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="D33" t="str">
+        <v>45</v>
+      </c>
+      <c r="E33" t="str">
+        <v>33</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <v>2</v>
+      </c>
+      <c r="H33" t="str">
+        <v>136.36</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Abu Dhabi</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Sep 29 2020</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Sunrisers won by 15 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K33"/>
   </ignoredErrors>
 </worksheet>
 </file>